--- a/Data/RawData/DMA Exercise.xlsx
+++ b/Data/RawData/DMA Exercise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa04beaa092828df/Documents/Staffing_levels_for_Nursing_and_Adult_Inpatient_Care_Quality_and_Safety/Data/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{FC5C3BF0-1D23-4A79-8341-02E143A4C36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B47319-A837-48F4-8FB8-CAA0CDA4C094}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{FC5C3BF0-1D23-4A79-8341-02E143A4C36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8E8C17E-0DF0-4E1E-BFA1-92068FD8B479}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="1" r:id="rId1"/>
@@ -257,28 +257,28 @@
     <t>Data dictionary: Current, calculated and proposed future planning measures.</t>
   </si>
   <si>
-    <t>To enable benchmarking of the 'Adult In-Patient' and 'Professional Judgement' tools are applied for at least 2 weeks (14 consecutive days, with no intervening days).</t>
-  </si>
-  <si>
-    <t>To use data on annual joiners and leavers to provide a stability index. Length of service can be used as a proxy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To relate sickness absence rate with staffing levels and staff turnover. </t>
-  </si>
-  <si>
-    <t>To determine the relationship between spending on agency staffing and sickness absence levels and staff turnover.</t>
-  </si>
-  <si>
-    <t>To determine the impact of staffing levels on patients. Measures include: patient falls, hospital-acquired infections, staff satisfaction,  and patient satisfaction with pain management and nursing care.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The proportion of registered nurses as a percentage of total nursing staff. To determine if the actual mix of staff was appropriate to meet the needs of patients on the ward. </t>
-  </si>
-  <si>
     <t>Skill mix</t>
   </si>
   <si>
     <t xml:space="preserve">Actual relative to required nursing workforce </t>
+  </si>
+  <si>
+    <t>To determine the impact of staffing levels on patients. Measures include: patient falls, hospital-acquired infections, staff satisfaction,  and patient satisfaction with pain management and nursing care</t>
+  </si>
+  <si>
+    <t>To determine the relationship between spending on agency staffing and sickness absence levels and staff turnover</t>
+  </si>
+  <si>
+    <t>To relate sickness absence rate with staffing levels and staff turnover</t>
+  </si>
+  <si>
+    <t>To use data on annual joiners and leavers to provide a stability index. Length of service can be used as a proxy</t>
+  </si>
+  <si>
+    <t>The proportion of registered nurses as a percentage of total nursing staff. To determine if the actual mix of staff was appropriate to meet the needs of patients on the ward</t>
+  </si>
+  <si>
+    <t>To enable benchmarking of the 'Adult In-Patient' and 'Professional Judgement' tools are applied for at least two weeks (14 consecutive days, with no intervening days)</t>
   </si>
 </sst>
 </file>
@@ -3722,8 +3722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA2CC83-E3F3-4EE6-A7F1-C6E66E2BB108}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4032,7 +4032,7 @@
         <v>58</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>54</v>
@@ -4049,10 +4049,10 @@
         <v>56</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>78</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>77</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>54</v>
@@ -4067,7 +4067,7 @@
     <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="75"/>
       <c r="B19" s="32" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>55</v>
@@ -4088,7 +4088,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>48</v>
@@ -4106,7 +4106,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>48</v>
@@ -4142,7 +4142,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>46</v>
